--- a/constant_enzymes.xlsx
+++ b/constant_enzymes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livelancsac-my.sharepoint.com/personal/vijayak2_lancaster_ac_uk/Documents/Code/C3-metabolic-and-leaf-model-svijayakumar_dev/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="8_{36A319C0-1870-40C2-A2FF-C08DCBFF010B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FF51894-0839-4827-996D-22829766D7D3}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{36A319C0-1870-40C2-A2FF-C08DCBFF010B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8839E0BF-05D0-4D75-BEA2-A8FA082C68E0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{74C4BDBC-9D23-4FDF-A4DC-7D8D1127E9B2}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="64">
   <si>
     <t>Ci</t>
   </si>
@@ -214,6 +214,21 @@
   </si>
   <si>
     <t>Suggested</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Transketolase</t>
+  </si>
+  <si>
+    <t>Fructose-bisphosphatase</t>
+  </si>
+  <si>
+    <t>1:6, 8,10,13:19</t>
+  </si>
+  <si>
+    <t>New Eio vector includes rows</t>
   </si>
 </sst>
 </file>
@@ -250,7 +265,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +287,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -303,7 +324,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -333,6 +354,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -348,6 +381,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -649,8 +686,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3246EEB-B0FD-423F-A1D3-4E791E88BFD6}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C29"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -717,30 +754,30 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="63" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="4" t="s">
+      <c r="A10" s="11"/>
+      <c r="B10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -754,11 +791,11 @@
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="A12" s="11"/>
+      <c r="B12" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -772,11 +809,11 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="4" t="s">
+      <c r="A14" s="11"/>
+      <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="13" t="s">
         <v>22</v>
       </c>
     </row>
@@ -939,23 +976,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D627708-668C-4C91-979B-6B85198DB793}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="33.44140625" customWidth="1"/>
+    <col min="8" max="8" width="30" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>54</v>
       </c>
       <c r="D1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -965,8 +1012,20 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -976,8 +1035,17 @@
       <c r="C3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -987,8 +1055,17 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -998,8 +1075,17 @@
       <c r="C5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1009,8 +1095,17 @@
       <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1020,8 +1115,17 @@
       <c r="C7" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1034,8 +1138,17 @@
       <c r="D8" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1045,8 +1158,17 @@
       <c r="C9" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1059,8 +1181,17 @@
       <c r="D10" s="10" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <v>9</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1070,8 +1201,17 @@
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1084,8 +1224,17 @@
       <c r="D12" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <v>11</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1098,8 +1247,17 @@
       <c r="D13" s="10" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1109,8 +1267,17 @@
       <c r="C14" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <v>13</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1120,8 +1287,17 @@
       <c r="C15" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <v>14</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1130,6 +1306,15 @@
       </c>
       <c r="C16" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="E16">
+        <v>15</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">

--- a/constant_enzymes.xlsx
+++ b/constant_enzymes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livelancsac-my.sharepoint.com/personal/vijayak2_lancaster_ac_uk/Documents/Code/C3-metabolic-and-leaf-model-svijayakumar_dev/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://livelancsac-my.sharepoint.com/personal/vijayak2_lancaster_ac_uk/Documents/Code/C3-metabolic-and-leaf-model-svijayakumar_dev_2.0/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{36A319C0-1870-40C2-A2FF-C08DCBFF010B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8839E0BF-05D0-4D75-BEA2-A8FA082C68E0}"/>
+  <xr:revisionPtr revIDLastSave="114" documentId="8_{36A319C0-1870-40C2-A2FF-C08DCBFF010B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A347035-BA8F-4233-AD1D-8C82918FA9AE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{74C4BDBC-9D23-4FDF-A4DC-7D8D1127E9B2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{74C4BDBC-9D23-4FDF-A4DC-7D8D1127E9B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="67">
   <si>
     <t>Ci</t>
   </si>
@@ -207,15 +207,6 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Duplicated</t>
-  </si>
-  <si>
-    <t>Associated with sucrose metabolism</t>
-  </si>
-  <si>
-    <t>Suggested</t>
-  </si>
-  <si>
     <t>New</t>
   </si>
   <si>
@@ -225,10 +216,28 @@
     <t>Fructose-bisphosphatase</t>
   </si>
   <si>
-    <t>1:6, 8,10,13:19</t>
-  </si>
-  <si>
     <t>New Eio vector includes rows</t>
+  </si>
+  <si>
+    <t>Ignore during optimization</t>
+  </si>
+  <si>
+    <t>Set a lower limit=starting level during optimization (no depletion)</t>
+  </si>
+  <si>
+    <t>Associated with sucrose metabolism - Set a lower limit=starting level during optimization (no depletion)</t>
+  </si>
+  <si>
+    <t>Duplicated(V8=V5), Ignore during optimization</t>
+  </si>
+  <si>
+    <t>Duplicated(V10=V7), Ignore during optimization</t>
+  </si>
+  <si>
+    <t>1:6,8,10,11,13:26</t>
+  </si>
+  <si>
+    <t>Eiopop row no.</t>
   </si>
 </sst>
 </file>
@@ -265,7 +274,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -293,6 +302,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -324,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -363,7 +378,16 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -381,10 +405,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -686,14 +706,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3246EEB-B0FD-423F-A1D3-4E791E88BFD6}">
   <dimension ref="A1:C29"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" customWidth="1"/>
-    <col min="2" max="2" width="52.21875" customWidth="1"/>
+    <col min="2" max="2" width="52.33203125" customWidth="1"/>
     <col min="3" max="3" width="94.5546875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -704,7 +724,7 @@
       </c>
       <c r="C1" s="1"/>
     </row>
-    <row r="2" spans="1:3" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1"/>
       <c r="B2" s="2" t="s">
         <v>1</v>
@@ -727,7 +747,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="2" t="s">
         <v>5</v>
@@ -736,7 +756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="2" t="s">
         <v>7</v>
@@ -745,7 +765,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="4" t="s">
         <v>9</v>
@@ -757,7 +777,7 @@
     <row r="8" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>12</v>
@@ -766,13 +786,13 @@
     <row r="9" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="12" t="s">
         <v>9</v>
@@ -793,7 +813,7 @@
     <row r="12" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C12" s="13" t="s">
         <v>18</v>
@@ -809,22 +829,22 @@
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="11"/>
-      <c r="B14" s="12" t="s">
+      <c r="A14" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="15" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="6" t="s">
+      <c r="A15" s="11"/>
+      <c r="B15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C15" s="13" t="s">
         <v>25</v>
       </c>
     </row>
@@ -976,33 +996,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D627708-668C-4C91-979B-6B85198DB793}">
-  <dimension ref="A1:H28"/>
+  <dimension ref="A1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="B21:E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="33.44140625" customWidth="1"/>
-    <col min="8" max="8" width="30" customWidth="1"/>
+    <col min="4" max="5" width="24.88671875" customWidth="1"/>
+    <col min="8" max="8" width="16.5546875" customWidth="1"/>
+    <col min="9" max="9" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>54</v>
       </c>
       <c r="D1" t="s">
         <v>55</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1013,7 +1037,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>91.2</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>3</v>
@@ -1021,11 +1045,14 @@
       <c r="G2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="2">
+        <v>1</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1036,7 +1063,7 @@
         <v>6</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1117.116</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>5</v>
@@ -1044,8 +1071,11 @@
       <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1056,7 +1086,7 @@
         <v>8</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>149.715</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>7</v>
@@ -1064,8 +1094,11 @@
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1076,7 +1109,7 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>45.18</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>9</v>
@@ -1084,8 +1117,11 @@
       <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H5" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1096,7 +1132,7 @@
         <v>12</v>
       </c>
       <c r="E6">
-        <v>5</v>
+        <v>26.919</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>11</v>
@@ -1104,8 +1140,11 @@
       <c r="G6" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H6" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1116,7 +1155,7 @@
         <v>14</v>
       </c>
       <c r="E7">
-        <v>6</v>
+        <v>115.72199999999999</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>13</v>
@@ -1124,8 +1163,11 @@
       <c r="G7" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H7" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1136,10 +1178,10 @@
         <v>15</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E8">
-        <v>7</v>
+        <v>63</v>
+      </c>
+      <c r="E8" s="10">
+        <v>45.18</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>16</v>
@@ -1147,8 +1189,11 @@
       <c r="G8" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H8" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1159,7 +1204,7 @@
         <v>17</v>
       </c>
       <c r="E9">
-        <v>8</v>
+        <v>12.015000000000001</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>19</v>
@@ -1167,8 +1212,11 @@
       <c r="G9" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H9" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1179,19 +1227,22 @@
         <v>18</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10">
+        <v>64</v>
+      </c>
+      <c r="E10" s="10">
+        <v>115.71299999999999</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="2">
         <v>9</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:9" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1202,62 +1253,71 @@
         <v>20</v>
       </c>
       <c r="E11">
+        <v>401.57100000000003</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="2">
         <v>10</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:9" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="15" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12">
+        <v>61</v>
+      </c>
+      <c r="E12" s="10">
+        <v>7.2089999999999996</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H12" s="2">
         <v>11</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:9" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E13">
+        <v>60</v>
+      </c>
+      <c r="E13" s="10">
+        <v>135</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="2">
         <v>12</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:9" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1268,16 +1328,19 @@
         <v>27</v>
       </c>
       <c r="E14">
+        <v>1415.34</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="2">
         <v>13</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:9" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1288,16 +1351,19 @@
         <v>29</v>
       </c>
       <c r="E15">
+        <v>154.32300000000001</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="2">
         <v>14</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:9" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1308,16 +1374,19 @@
         <v>31</v>
       </c>
       <c r="E16">
+        <v>39.311999999999998</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H16" s="2">
         <v>15</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:8" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1327,8 +1396,20 @@
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <v>89.271000000000001</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H17" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1338,8 +1419,20 @@
       <c r="C18" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="47.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <v>270.26100000000002</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1349,8 +1442,20 @@
       <c r="C19" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="109.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <v>74.132999999999996</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H19" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1360,22 +1465,46 @@
       <c r="C20" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <v>67.355999999999995</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="15" t="s">
         <v>41</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="E21" s="10">
+        <v>2.8980000000000001</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H21" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1386,10 +1515,22 @@
         <v>43</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1.728</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H22" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="125.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1400,10 +1541,22 @@
         <v>45</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="E23" s="10">
+        <v>3.1139999999999999</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1414,10 +1567,22 @@
         <v>47</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1.5029999999999999</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H24" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1428,10 +1593,13 @@
         <v>49</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="E25" s="10">
+        <v>14.984999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="94.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1442,10 +1610,13 @@
         <v>51</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="63" thickBot="1" x14ac:dyDescent="0.35">
+        <v>62</v>
+      </c>
+      <c r="E26" s="10">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="63" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1456,13 +1627,18 @@
         <v>53</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="E27" s="10">
+        <v>2.7269999999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>